--- a/時程表.xlsx
+++ b/時程表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Room\Goals\時程表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Room\Goals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C8401A-5E65-4C7B-85D9-3FAF5ADC25DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB91ACA5-BFDD-45B1-A160-16E5110B5D58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Day1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,10 +182,6 @@
   </si>
   <si>
     <t>程式交易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回測系統改由資料庫讀取數據：兩個數據來源都註冊事件，模擬前一天的數據銜接今天的數據。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -266,6 +262,14 @@
   <si>
     <t>回測系統應允許多策略
 同時執行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回測系統改由資料庫讀取數據</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略使用歷史數據和當天數據兩個數據來源，兩者註冊同一個事件，模擬前一天的數據銜接後一天的數據</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,13 +629,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA76"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1090,7 @@
     </row>
     <row r="54" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="8"/>
@@ -1117,7 +1121,7 @@
     </row>
     <row r="55" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="8"/>
@@ -1148,7 +1152,7 @@
     </row>
     <row r="56" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="8"/>
@@ -1179,7 +1183,7 @@
     </row>
     <row r="57" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="8"/>
@@ -1210,7 +1214,7 @@
     </row>
     <row r="58" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="8"/>
@@ -1241,7 +1245,7 @@
     </row>
     <row r="59" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="8"/>
@@ -1272,7 +1276,7 @@
     </row>
     <row r="60" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="8"/>
@@ -1303,7 +1307,7 @@
     </row>
     <row r="61" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="8"/>
@@ -1334,7 +1338,7 @@
     </row>
     <row r="62" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="8"/>
@@ -1365,7 +1369,7 @@
     </row>
     <row r="63" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="8"/>
@@ -1396,7 +1400,7 @@
     </row>
     <row r="64" spans="1:27" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="8"/>
@@ -1427,7 +1431,7 @@
     </row>
     <row r="65" spans="1:27" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="8"/>
@@ -1458,7 +1462,7 @@
     </row>
     <row r="66" spans="1:27" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="8"/>
@@ -1489,7 +1493,7 @@
     </row>
     <row r="67" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="8"/>
@@ -1520,7 +1524,7 @@
     </row>
     <row r="68" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="8"/>
@@ -1549,69 +1553,76 @@
       <c r="Z68" s="8"/>
       <c r="AA68" s="8"/>
     </row>
-    <row r="69" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
+    <row r="70" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>54</v>
-      </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
-      </c>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>56</v>
-      </c>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>56</v>
+      </c>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>57</v>
+      </c>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+    </row>
+    <row r="77" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-    </row>
-    <row r="76" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/時程表.xlsx
+++ b/時程表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Room\Goals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Goals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB91ACA5-BFDD-45B1-A160-16E5110B5D58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4792E3C9-FDAA-4AA4-8C89-0569A83B0CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -27,157 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
-    <t>Day1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day2</t>
-  </si>
-  <si>
-    <t>Day3</t>
-  </si>
-  <si>
-    <t>Day4</t>
-  </si>
-  <si>
-    <t>Day5</t>
-  </si>
-  <si>
-    <t>Day6</t>
-  </si>
-  <si>
-    <t>Day7</t>
-  </si>
-  <si>
-    <t>Day8</t>
-  </si>
-  <si>
-    <t>Day9</t>
-  </si>
-  <si>
-    <t>Day10</t>
-  </si>
-  <si>
-    <t>Day11</t>
-  </si>
-  <si>
-    <t>Day12</t>
-  </si>
-  <si>
-    <t>Day13</t>
-  </si>
-  <si>
-    <t>Day14</t>
-  </si>
-  <si>
-    <t>Day15</t>
-  </si>
-  <si>
-    <t>Day16</t>
-  </si>
-  <si>
-    <t>Day17</t>
-  </si>
-  <si>
-    <t>Day18</t>
-  </si>
-  <si>
-    <t>Day19</t>
-  </si>
-  <si>
-    <t>Day20</t>
-  </si>
-  <si>
-    <t>Day21</t>
-  </si>
-  <si>
-    <t>Day22</t>
-  </si>
-  <si>
-    <t>Day23</t>
-  </si>
-  <si>
-    <t>Day24</t>
-  </si>
-  <si>
-    <t>Day25</t>
-  </si>
-  <si>
-    <t>Day26</t>
-  </si>
-  <si>
-    <t>Day27</t>
-  </si>
-  <si>
-    <t>Day28</t>
-  </si>
-  <si>
-    <t>Day29</t>
-  </si>
-  <si>
-    <t>Day30</t>
-  </si>
-  <si>
-    <t>Day31</t>
-  </si>
-  <si>
-    <t>Day32</t>
-  </si>
-  <si>
-    <t>Day33</t>
-  </si>
-  <si>
-    <t>Day34</t>
-  </si>
-  <si>
-    <t>Day35</t>
-  </si>
-  <si>
-    <t>Day36</t>
-  </si>
-  <si>
-    <t>Day37</t>
-  </si>
-  <si>
-    <t>Day38</t>
-  </si>
-  <si>
-    <t>Day39</t>
-  </si>
-  <si>
-    <t>Day40</t>
-  </si>
-  <si>
-    <t>Day41</t>
-  </si>
-  <si>
-    <t>Day42</t>
-  </si>
-  <si>
-    <t>Day43</t>
-  </si>
-  <si>
-    <t>Day44</t>
-  </si>
-  <si>
-    <t>Day45</t>
-  </si>
-  <si>
-    <t>Day46</t>
-  </si>
-  <si>
-    <t>Day47</t>
-  </si>
-  <si>
-    <t>Day48</t>
-  </si>
-  <si>
-    <t>Day49</t>
-  </si>
-  <si>
-    <t>Day50</t>
-  </si>
-  <si>
     <t>電腦視覺與深度學習馬拉松</t>
   </si>
   <si>
@@ -270,6 +119,240 @@
   </si>
   <si>
     <t>策略使用歷史數據和當天數據兩個數據來源，兩者註冊同一個事件，模擬前一天的數據銜接後一天的數據</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1:OpenCV 簡介 + 顯示圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day19:InceptionV1-V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day21:Transfer learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day23:Object detection原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day26:RPN架構介紹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day29:程式導讀、實作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day30:程式導讀、實作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day32:YOLO 簡介及算法理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day31:程式導讀、實作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day38:YOLO 演進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day41:訓練 YOLOv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day45:人臉關鍵點應用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day46:Mobilenet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day47:Ｍobilenetv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day49:期末專題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day50:期末專題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2:Color presentation 介紹 
+(RGB, LAB, HSV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3:顏色相關的預處理
+ (改變亮度, 色差)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day4:以圖片為例做矩陣操作
+ (翻轉, 縮放, 平移)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5:透過 OpenCV 做圖並
+顯示 (長方形, 圓形, 直線, 填色)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day6:affine transformation 
+概念與實作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day7:perspective transformation 
+概念與實作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day8:Filter 操作 
+(Sobel edge detect, Gaussian Blur)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day9:SIFT 介紹與實作 
+(feature extractor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day10:SIFT 其他應用
+ (keypoint matching)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day11:CNN分類器架構：
+卷積層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day12:CNN分類器架構：
+步長、填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day13:CNN分類器架構：
+池化層、全連接層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day14:CNN分類器架構：
+Batch Normalization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day15:訓練一個CNN分類器：
+Cifar10為例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day16:如何使用
+Data Augmentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day17:深度學習理論與實作：
+Classic CNN Backbone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day18:深度學習理論與實作：
+Classic CNN Backbone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day20:ResNetV1-V2、
+InceptionV4、Inception-ResNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day22:Breaking Captchas 
+with a CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day24:Object detection基本
+介紹、演進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day25:Region Proposal、IOU
+概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day27:Bounding Box 
+Regression原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day28:Non-Maximum 
+Suppression (NMS)原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day33:YOLO 細節理解 - 
+網路輸出的後處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day34:YOLO 細節理解 - 
+損失函數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day35:YOLO 細節理解 - 
+損失函數程式碼解讀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day36:YOLO 細節理解 - 
+網路架構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day37:YOLO 細節理解 - 
+網路架構程式碼解讀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day39:使用 YOLOv3 偵測圖片
+及影片中的物件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day40:更快的檢測模型 - 
+tiny YOLOv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day42:人臉關鍵點-
+資料結構簡介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day43:人臉關鍵點-
+檢測網路架構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day44:訓練人臉關鍵點
+檢測網路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day48:Tensorflow Object 
+Detection API</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,22 +714,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="27" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="27" width="11.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>44171</v>
       </c>
@@ -726,9 +809,9 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -757,309 +840,309 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" s="3"/>
+    </row>
+    <row r="44" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="T44" s="3"/>
+    </row>
+    <row r="45" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T45" s="3"/>
+    </row>
+    <row r="46" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U46" s="3"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="U47" s="3"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="V48" s="3"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="V49" s="3"/>
+    </row>
+    <row r="50" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W50" s="3"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="W51" s="3"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="W52" s="3"/>
+    </row>
+    <row r="53" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1088,9 +1171,9 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="8"/>
@@ -1119,9 +1202,9 @@
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
     </row>
-    <row r="55" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="8"/>
@@ -1150,9 +1233,9 @@
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
     </row>
-    <row r="56" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="8"/>
@@ -1181,9 +1264,9 @@
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
     </row>
-    <row r="57" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="8"/>
@@ -1212,9 +1295,9 @@
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
     </row>
-    <row r="58" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="8"/>
@@ -1243,9 +1326,9 @@
       <c r="Z58" s="8"/>
       <c r="AA58" s="8"/>
     </row>
-    <row r="59" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="8"/>
@@ -1274,9 +1357,9 @@
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
     </row>
-    <row r="60" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="8"/>
@@ -1305,9 +1388,9 @@
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
     </row>
-    <row r="61" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="8"/>
@@ -1336,9 +1419,9 @@
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
     </row>
-    <row r="62" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="8"/>
@@ -1367,9 +1450,9 @@
       <c r="Z62" s="8"/>
       <c r="AA62" s="8"/>
     </row>
-    <row r="63" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="8"/>
@@ -1398,9 +1481,9 @@
       <c r="Z63" s="8"/>
       <c r="AA63" s="8"/>
     </row>
-    <row r="64" spans="1:27" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="8"/>
@@ -1429,9 +1512,9 @@
       <c r="Z64" s="8"/>
       <c r="AA64" s="8"/>
     </row>
-    <row r="65" spans="1:27" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="8"/>
@@ -1460,9 +1543,9 @@
       <c r="Z65" s="8"/>
       <c r="AA65" s="8"/>
     </row>
-    <row r="66" spans="1:27" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="8"/>
@@ -1491,9 +1574,9 @@
       <c r="Z66" s="8"/>
       <c r="AA66" s="8"/>
     </row>
-    <row r="67" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="8"/>
@@ -1522,9 +1605,9 @@
       <c r="Z67" s="8"/>
       <c r="AA67" s="8"/>
     </row>
-    <row r="68" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="8"/>
@@ -1553,55 +1636,55 @@
       <c r="Z68" s="8"/>
       <c r="AA68" s="8"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="60" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
@@ -1609,17 +1692,17 @@
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
     </row>
-    <row r="77" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>

--- a/時程表.xlsx
+++ b/時程表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Goals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4792E3C9-FDAA-4AA4-8C89-0569A83B0CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBDEAAA-EB66-4759-A439-8684BA84A90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>電腦視覺與深度學習馬拉松</t>
   </si>
@@ -353,6 +353,10 @@
   <si>
     <t>Day48:Tensorflow Object 
 Detection API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根據日期區間，讀取資料庫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +381,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -417,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -430,6 +441,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -712,13 +726,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AA78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1644,68 +1658,74 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="60" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:27" ht="60" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>4</v>
-      </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>5</v>
-      </c>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>7</v>
       </c>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-    </row>
-    <row r="77" spans="1:27" ht="30" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+    </row>
+    <row r="78" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/時程表.xlsx
+++ b/時程表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Goals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBDEAAA-EB66-4759-A439-8684BA84A90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDFC6A9-B747-4A47-8348-7B4A373EE757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,10 +729,10 @@
   <dimension ref="A1:AA78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -900,13 +900,13 @@
       <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1655,7 +1655,7 @@
         <v>24</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
@@ -1668,7 +1668,6 @@
       <c r="A71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">

--- a/時程表.xlsx
+++ b/時程表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Goals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Room\Goals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBDEAAA-EB66-4759-A439-8684BA84A90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDE0102-797A-4A26-BA85-2951D8C57F16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -729,21 +729,21 @@
   <dimension ref="A1:AA78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="27" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="27" width="11.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>44171</v>
       </c>
@@ -823,7 +823,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -854,307 +854,307 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>62</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>63</v>
       </c>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>64</v>
       </c>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>65</v>
       </c>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>66</v>
       </c>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>67</v>
       </c>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>70</v>
       </c>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>71</v>
       </c>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>72</v>
       </c>
       <c r="T44" s="3"/>
     </row>
-    <row r="45" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>73</v>
       </c>
       <c r="T45" s="3"/>
     </row>
-    <row r="46" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>74</v>
       </c>
       <c r="U46" s="3"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="U47" s="3"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
       <c r="V48" s="3"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
       <c r="V49" s="3"/>
     </row>
-    <row r="50" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>75</v>
       </c>
       <c r="W50" s="3"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
       <c r="W51" s="3"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
       <c r="W52" s="3"/>
     </row>
-    <row r="53" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
     </row>
-    <row r="55" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
     </row>
-    <row r="56" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>11</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
     </row>
-    <row r="57" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
     </row>
-    <row r="58" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1340,7 @@
       <c r="Z58" s="8"/>
       <c r="AA58" s="8"/>
     </row>
-    <row r="59" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>14</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
     </row>
-    <row r="60" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>15</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
     </row>
-    <row r="61" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>16</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
     </row>
-    <row r="62" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="Z62" s="8"/>
       <c r="AA62" s="8"/>
     </row>
-    <row r="63" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>18</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="Z63" s="8"/>
       <c r="AA63" s="8"/>
     </row>
-    <row r="64" spans="1:27" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>21</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="Z64" s="8"/>
       <c r="AA64" s="8"/>
     </row>
-    <row r="65" spans="1:27" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>22</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="Z65" s="8"/>
       <c r="AA65" s="8"/>
     </row>
-    <row r="66" spans="1:27" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>23</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="Z66" s="8"/>
       <c r="AA66" s="8"/>
     </row>
-    <row r="67" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="Z67" s="8"/>
       <c r="AA67" s="8"/>
     </row>
-    <row r="68" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>20</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="Z68" s="8"/>
       <c r="AA68" s="8"/>
     </row>
-    <row r="69" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>24</v>
       </c>
@@ -1658,20 +1658,20 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:27" ht="60" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -1680,14 +1680,14 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -1695,14 +1695,14 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
     </row>
-    <row r="78" spans="1:27" ht="30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>8</v>
       </c>

--- a/時程表.xlsx
+++ b/時程表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Room\Goals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Goals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B4D66B-B5B7-48F8-B659-79623851EEE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B80AC7-7590-48B3-853E-DC488AF5EAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>電腦視覺與深度學習馬拉松</t>
   </si>
@@ -732,18 +732,18 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="27" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="27" width="11.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>44171</v>
       </c>
@@ -823,7 +823,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -854,307 +854,307 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>62</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>63</v>
       </c>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>64</v>
       </c>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>65</v>
       </c>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>66</v>
       </c>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>67</v>
       </c>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>70</v>
       </c>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>71</v>
       </c>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>36</v>
       </c>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>72</v>
       </c>
       <c r="T44" s="3"/>
     </row>
-    <row r="45" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>73</v>
       </c>
       <c r="T45" s="3"/>
     </row>
-    <row r="46" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>74</v>
       </c>
       <c r="U46" s="3"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="U47" s="3"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
       <c r="V48" s="3"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>39</v>
       </c>
       <c r="V49" s="3"/>
     </row>
-    <row r="50" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>75</v>
       </c>
       <c r="W50" s="3"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
       <c r="W51" s="3"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
       <c r="W52" s="3"/>
     </row>
-    <row r="53" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
     </row>
-    <row r="55" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
     </row>
-    <row r="56" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>11</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
     </row>
-    <row r="57" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
     </row>
-    <row r="58" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1340,7 @@
       <c r="Z58" s="8"/>
       <c r="AA58" s="8"/>
     </row>
-    <row r="59" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>14</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
     </row>
-    <row r="60" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>15</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
     </row>
-    <row r="61" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>16</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
     </row>
-    <row r="62" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="Z62" s="8"/>
       <c r="AA62" s="8"/>
     </row>
-    <row r="63" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>18</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="Z63" s="8"/>
       <c r="AA63" s="8"/>
     </row>
-    <row r="64" spans="1:27" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>21</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="Z64" s="8"/>
       <c r="AA64" s="8"/>
     </row>
-    <row r="65" spans="1:27" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>22</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="Z65" s="8"/>
       <c r="AA65" s="8"/>
     </row>
-    <row r="66" spans="1:27" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>23</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="Z66" s="8"/>
       <c r="AA66" s="8"/>
     </row>
-    <row r="67" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="Z67" s="8"/>
       <c r="AA67" s="8"/>
     </row>
-    <row r="68" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>20</v>
       </c>
@@ -1650,44 +1650,44 @@
       <c r="Z68" s="8"/>
       <c r="AA68" s="8"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:27" ht="60" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
-      <c r="F72" s="3"/>
+      <c r="F72" s="2"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -1695,14 +1695,14 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
     </row>
-    <row r="78" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="30" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>8</v>
       </c>

--- a/時程表.xlsx
+++ b/時程表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Room\Goals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B4D66B-B5B7-48F8-B659-79623851EEE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D32456-AC36-49F1-BB35-41164C827C94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="78">
   <si>
     <t>電腦視覺與深度學習馬拉松</t>
   </si>
@@ -357,6 +357,10 @@
   </si>
   <si>
     <t>根據日期區間，讀取資料庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quote &amp; Order 整合性服務</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,10 +733,10 @@
   <dimension ref="A1:AA78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1663,21 +1667,21 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:27" ht="63" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>2</v>
-      </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
